--- a/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/awareness_2b.xlsx
+++ b/measures/3 translation and stimuli selection/2 sites/Balas & Sarzynska/translation/Polish/awareness_2b.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmoranyo\Documents\LipLab\projects\RRR_fazio&amp;olson2001\replication_procedure\labs\BALAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="3660" yWindow="3000" windowWidth="26820" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -24,32 +29,30 @@
     <t>awareness_2b_question_text</t>
   </si>
   <si>
-    <t xml:space="preserve">W trakcie pierwszego zadania, która z dwóch postaci była konsekwentnie pokazywana z POZYTYWNYMI obrazami i słowami?
- 1 = BERGMITE (na pewno)
-2 = BERGMITE (prawdopodobnie)
-3 = BERGMITE (zgaduję)
-4 = PALPITOAD (zgaduję)
-5 = PALPITOAD (prawdopodobnie)
-6 = PALPITOAD (na pewno)  
-Kliknij w linię, a potem potwierdź swój wybór klikając w szary przycisk poniżej.
-</t>
+    <t>W trakcie pierwszego zadania, która z dwóch postaci była konsekwentnie pokazywana z POZYTYWNYMI obrazami i słowami? 
+1 = SHELMET (na pewno)
+2 = SHELMET (prawdopodobnie)
+3 = SHELMET (zgaduję)
+4 = GOURGEIST (zgaduję)
+5 = GOURGEIST (prawdopodobnie)
+6 = GOURGEIST (na pewno)
+Kliknij w linię, a potem potwierdź swój wybór klikając w szary przycisk poniżej.</t>
   </si>
   <si>
-    <t xml:space="preserve">W trakcie pierwszego zadania, która z dwóch postaci była konsekwentnie pokazywana z NEGATYWNYMI obrazami i słowami?
- 1 = BERGMITE (na pewno)
-2 = BERGMITE (prawdopodobnie)
-3 = BERGMITE (zgaduję)
-4 = PALPITOAD (zgaduję)
-5 = PALPITOAD (prawdopodobnie)
-6 = PALPITOAD (na pewno)  
-Kliknij w linię, a potem potwierdź swój wybór klikając w szary przycisk poniżej.
-</t>
+    <t>W trakcie pierwszego zadania, która z dwóch postaci była konsekwentnie pokazywana z NEGATYWNYMI obrazami i słowami? 
+1 = SHELMET (na pewno)
+2 = SHELMET (prawdopodobnie)
+3 = SHELMET (zgaduję)
+4 = GOURGEIST (zgaduję)
+5 = GOURGEIST (prawdopodobnie)
+6 = GOURGEIST (na pewno)
+Kliknij w linię, a potem potwierdź swój wybór klikając w szary przycisk poniżej.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -893,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,22 +910,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="195" customHeight="1">
+    <row r="2" spans="1:1" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="198" customHeight="1">
+    <row r="3" spans="1:1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
